--- a/Data/EC/NIT-8300982403.xlsx
+++ b/Data/EC/NIT-8300982403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D2C7AA-8F44-40BA-81D0-F044080AA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4A1677-7FE8-4630-A328-BC377C19118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FA2BAA25-9694-49B5-B4BF-271355C7DA29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3F1FB07-BC58-4C3D-97C7-F4FF89E33F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,18 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047447559</t>
+  </si>
+  <si>
+    <t>DAVID SALOMON MORALES GONZALES</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>1143386760</t>
   </si>
   <si>
@@ -74,6 +86,36 @@
     <t>1712</t>
   </si>
   <si>
+    <t>1023908096</t>
+  </si>
+  <si>
+    <t>LEYDI CONSTANZA PIRACHICAN DAZA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1050969971</t>
+  </si>
+  <si>
+    <t>YESSICA PAOLA CASTILLA TORRES</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>1002202656</t>
   </si>
   <si>
@@ -83,22 +125,25 @@
     <t>2402</t>
   </si>
   <si>
-    <t>1023908096</t>
-  </si>
-  <si>
-    <t>LEYDI CONSTANZA PIRACHICAN DAZA</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1127608729</t>
+  </si>
+  <si>
+    <t>VICTOR ANTONIO BERRIO TERAN</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>1066870078</t>
+  </si>
+  <si>
+    <t>NICOLLE MARCELA MORENO MORENO</t>
+  </si>
+  <si>
+    <t>1043961211</t>
+  </si>
+  <si>
+    <t>ALEXANDER GUZMAN MARTINEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999A37B6-E184-0098-EEBE-87CCA7546ED6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D7491CC-3DC3-B570-AFF0-781A248A450F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,8 +908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75196A56-859D-4D5A-B43B-33A375CFA54F}">
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D6E6D8-C29D-4D83-8739-D81D777DBC00}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -875,7 +920,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -888,7 +933,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -933,7 +978,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -965,12 +1010,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>330000</v>
+        <v>604010</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -981,17 +1026,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1018,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1041,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30000</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>750000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1078,19 +1123,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
-        <v>62000</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="18">
-        <v>1550000</v>
+        <v>750000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,10 +1146,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>18</v>
@@ -1124,10 +1169,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>19</v>
@@ -1143,56 +1188,217 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="18">
         <v>62000</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="18">
         <v>1550000</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="18">
+        <v>62000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1550000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="18">
+        <v>62000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1550000</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="18">
+        <v>18200</v>
+      </c>
+      <c r="G24" s="18">
+        <v>910000</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="E26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="18">
+        <v>52800</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1320000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="24">
+        <v>11388</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
